--- a/進捗管理表_ProjectX_大石.xlsx
+++ b/進捗管理表_ProjectX_大石.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295E4D14-7704-4384-8644-1618C3B84F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8D6386-B914-4E59-A7DF-DC07D6665205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="45">
   <si>
     <t>■進捗管理表</t>
   </si>
@@ -85,9 +85,6 @@
       <t>オオイシ</t>
     </rPh>
     <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>作成中</t>
   </si>
   <si>
     <t>仕様書作成</t>
@@ -212,6 +209,25 @@
   </si>
   <si>
     <t>メニュー画面設計書</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>作成完了</t>
+  </si>
+  <si>
+    <t>24h</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>27h</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>8h</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>16h</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -915,7 +931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1108,14 +1124,32 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1173,36 +1207,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1431,7 +1435,7 @@
   <dimension ref="A1:AL1012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="B25" sqref="B25:B26"/>
@@ -1530,230 +1534,230 @@
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="77" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="79">
+      <c r="G3" s="85">
         <v>45627</v>
       </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="80"/>
-      <c r="AL3" s="81"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="86"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="86"/>
+      <c r="AJ3" s="86"/>
+      <c r="AK3" s="86"/>
+      <c r="AL3" s="87"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="72" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="82"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="83"/>
-      <c r="AD4" s="83"/>
-      <c r="AE4" s="83"/>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="83"/>
-      <c r="AH4" s="83"/>
-      <c r="AI4" s="83"/>
-      <c r="AJ4" s="83"/>
-      <c r="AK4" s="83"/>
-      <c r="AL4" s="84"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="89"/>
+      <c r="AL4" s="90"/>
     </row>
     <row r="5" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="78">
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="84">
         <v>3</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="67">
+      <c r="H5" s="74"/>
+      <c r="I5" s="73">
         <v>4</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="67">
+      <c r="J5" s="79"/>
+      <c r="K5" s="73">
         <v>5</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="67">
+      <c r="L5" s="79"/>
+      <c r="M5" s="73">
         <v>6</v>
       </c>
-      <c r="N5" s="73"/>
-      <c r="O5" s="67">
+      <c r="N5" s="79"/>
+      <c r="O5" s="73">
         <v>9</v>
       </c>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="67">
+      <c r="P5" s="79"/>
+      <c r="Q5" s="73">
         <v>10</v>
       </c>
-      <c r="R5" s="73"/>
-      <c r="S5" s="67">
+      <c r="R5" s="79"/>
+      <c r="S5" s="73">
         <v>11</v>
       </c>
-      <c r="T5" s="73"/>
-      <c r="U5" s="67">
+      <c r="T5" s="79"/>
+      <c r="U5" s="73">
         <v>12</v>
       </c>
-      <c r="V5" s="73"/>
-      <c r="W5" s="67">
+      <c r="V5" s="79"/>
+      <c r="W5" s="73">
         <v>13</v>
       </c>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="67">
+      <c r="X5" s="79"/>
+      <c r="Y5" s="73">
         <v>16</v>
       </c>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="67">
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="73">
         <v>17</v>
       </c>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="67">
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="73">
         <v>18</v>
       </c>
-      <c r="AD5" s="68"/>
-      <c r="AE5" s="67">
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="73">
         <v>19</v>
       </c>
-      <c r="AF5" s="68"/>
-      <c r="AG5" s="67">
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="73">
         <v>20</v>
       </c>
-      <c r="AH5" s="68"/>
+      <c r="AH5" s="74"/>
       <c r="AI5" s="10"/>
       <c r="AJ5" s="11"/>
       <c r="AK5" s="10"/>
       <c r="AL5" s="11"/>
     </row>
     <row r="6" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="74" t="s">
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="74" t="s">
+      <c r="H6" s="74"/>
+      <c r="I6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="74" t="s">
+      <c r="J6" s="74"/>
+      <c r="K6" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="68"/>
-      <c r="M6" s="74" t="s">
+      <c r="L6" s="74"/>
+      <c r="M6" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="68"/>
-      <c r="O6" s="67" t="s">
+      <c r="N6" s="74"/>
+      <c r="O6" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="67" t="s">
+      <c r="P6" s="74"/>
+      <c r="Q6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="68"/>
-      <c r="S6" s="67" t="s">
+      <c r="R6" s="74"/>
+      <c r="S6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="68"/>
-      <c r="U6" s="67" t="s">
+      <c r="T6" s="74"/>
+      <c r="U6" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="68"/>
-      <c r="W6" s="67" t="s">
+      <c r="V6" s="74"/>
+      <c r="W6" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="67" t="s">
+      <c r="X6" s="74"/>
+      <c r="Y6" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="67" t="s">
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="67" t="s">
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="67" t="s">
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AF6" s="68"/>
-      <c r="AG6" s="67" t="s">
+      <c r="AF6" s="74"/>
+      <c r="AG6" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="AH6" s="68"/>
+      <c r="AH6" s="74"/>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
@@ -1802,13 +1806,13 @@
       <c r="AL7" s="20"/>
     </row>
     <row r="8" spans="1:38" ht="12" customHeight="1">
-      <c r="A8" s="64">
+      <c r="A8" s="66">
         <v>1</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="21" t="s">
         <v>13</v>
       </c>
@@ -1846,11 +1850,11 @@
       <c r="AL8" s="26"/>
     </row>
     <row r="9" spans="1:38" ht="12" customHeight="1">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="27" t="s">
         <v>14</v>
       </c>
@@ -1888,13 +1892,13 @@
       <c r="AL9" s="30"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1">
-      <c r="A10" s="64">
+      <c r="A10" s="66">
         <v>2</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
       <c r="F10" s="31" t="s">
         <v>13</v>
       </c>
@@ -1932,11 +1936,11 @@
       <c r="AL10" s="10"/>
     </row>
     <row r="11" spans="1:38" ht="12" customHeight="1">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="34" t="s">
         <v>14</v>
       </c>
@@ -1974,13 +1978,13 @@
       <c r="AL11" s="37"/>
     </row>
     <row r="12" spans="1:38" ht="12" customHeight="1">
-      <c r="A12" s="64">
+      <c r="A12" s="66">
         <v>3</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
       <c r="F12" s="21" t="s">
         <v>13</v>
       </c>
@@ -2018,11 +2022,11 @@
       <c r="AL12" s="26"/>
     </row>
     <row r="13" spans="1:38" ht="12" customHeight="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="38" t="s">
         <v>14</v>
       </c>
@@ -2060,13 +2064,13 @@
       <c r="AL13" s="30"/>
     </row>
     <row r="14" spans="1:38" ht="12" customHeight="1">
-      <c r="A14" s="64">
+      <c r="A14" s="66">
         <v>4</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
       <c r="F14" s="31" t="s">
         <v>13</v>
       </c>
@@ -2104,11 +2108,11 @@
       <c r="AL14" s="10"/>
     </row>
     <row r="15" spans="1:38" ht="12" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="34" t="s">
         <v>14</v>
       </c>
@@ -2146,13 +2150,13 @@
       <c r="AL15" s="37"/>
     </row>
     <row r="16" spans="1:38" ht="12" customHeight="1">
-      <c r="A16" s="64">
+      <c r="A16" s="66">
         <v>5</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
       <c r="F16" s="21" t="s">
         <v>13</v>
       </c>
@@ -2190,11 +2194,11 @@
       <c r="AL16" s="26"/>
     </row>
     <row r="17" spans="1:38" ht="12" customHeight="1">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
       <c r="F17" s="38" t="s">
         <v>14</v>
       </c>
@@ -2232,13 +2236,13 @@
       <c r="AL17" s="41"/>
     </row>
     <row r="18" spans="1:38" ht="12" customHeight="1">
-      <c r="A18" s="64">
+      <c r="A18" s="66">
         <v>6</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
       <c r="F18" s="31" t="s">
         <v>13</v>
       </c>
@@ -2276,11 +2280,11 @@
       <c r="AL18" s="10"/>
     </row>
     <row r="19" spans="1:38" ht="12" customHeight="1">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="27" t="s">
         <v>14</v>
       </c>
@@ -2318,13 +2322,13 @@
       <c r="AL19" s="41"/>
     </row>
     <row r="20" spans="1:38" ht="12" customHeight="1">
-      <c r="A20" s="64">
+      <c r="A20" s="66">
         <v>7</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
       <c r="F20" s="31" t="s">
         <v>13</v>
       </c>
@@ -2362,11 +2366,11 @@
       <c r="AL20" s="10"/>
     </row>
     <row r="21" spans="1:38" ht="12" customHeight="1">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
       <c r="F21" s="27" t="s">
         <v>14</v>
       </c>
@@ -2404,13 +2408,13 @@
       <c r="AL21" s="41"/>
     </row>
     <row r="22" spans="1:38" ht="12" customHeight="1">
-      <c r="A22" s="64">
+      <c r="A22" s="66">
         <v>8</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
       <c r="F22" s="21" t="s">
         <v>13</v>
       </c>
@@ -2448,11 +2452,11 @@
       <c r="AL22" s="26"/>
     </row>
     <row r="23" spans="1:38" ht="12" customHeight="1">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
       <c r="F23" s="34" t="s">
         <v>14</v>
       </c>
@@ -2532,18 +2536,20 @@
       <c r="AL24" s="20"/>
     </row>
     <row r="25" spans="1:38" ht="12" customHeight="1">
-      <c r="A25" s="64">
+      <c r="A25" s="66">
         <v>1</v>
       </c>
-      <c r="B25" s="86" t="s">
-        <v>32</v>
+      <c r="B25" s="68" t="s">
+        <v>31</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66" t="s">
+      <c r="C25" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="66" t="s">
-        <v>20</v>
+      <c r="E25" s="70" t="s">
+        <v>40</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>13</v>
@@ -2554,7 +2560,7 @@
       <c r="J25" s="57"/>
       <c r="K25" s="56"/>
       <c r="L25" s="56"/>
-      <c r="M25" s="93"/>
+      <c r="M25" s="24"/>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
@@ -2582,11 +2588,11 @@
       <c r="AL25" s="26"/>
     </row>
     <row r="26" spans="1:38" ht="12" customHeight="1">
-      <c r="A26" s="65"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
       <c r="F26" s="27" t="s">
         <v>14</v>
       </c>
@@ -2596,7 +2602,7 @@
       <c r="J26" s="59"/>
       <c r="K26" s="59"/>
       <c r="L26" s="59"/>
-      <c r="M26" s="96"/>
+      <c r="M26" s="29"/>
       <c r="N26" s="29"/>
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
@@ -2624,18 +2630,20 @@
       <c r="AL26" s="30"/>
     </row>
     <row r="27" spans="1:38" ht="12" customHeight="1">
-      <c r="A27" s="64">
+      <c r="A27" s="66">
         <v>2</v>
       </c>
-      <c r="B27" s="86" t="s">
-        <v>33</v>
+      <c r="B27" s="68" t="s">
+        <v>32</v>
       </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66" t="s">
+      <c r="C27" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="66" t="s">
-        <v>20</v>
+      <c r="E27" s="70" t="s">
+        <v>40</v>
       </c>
       <c r="F27" s="31" t="s">
         <v>13</v>
@@ -2646,7 +2654,7 @@
       <c r="J27" s="62"/>
       <c r="K27" s="57"/>
       <c r="L27" s="57"/>
-      <c r="M27" s="95"/>
+      <c r="M27" s="32"/>
       <c r="N27" s="32"/>
       <c r="O27" s="32"/>
       <c r="P27" s="32"/>
@@ -2674,21 +2682,21 @@
       <c r="AL27" s="10"/>
     </row>
     <row r="28" spans="1:38" ht="12" customHeight="1">
-      <c r="A28" s="65"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
       <c r="F28" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="88"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="97"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="36"/>
       <c r="N28" s="36"/>
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
@@ -2716,18 +2724,20 @@
       <c r="AL28" s="37"/>
     </row>
     <row r="29" spans="1:38" ht="12" customHeight="1">
-      <c r="A29" s="64">
+      <c r="A29" s="66">
         <v>3</v>
       </c>
-      <c r="B29" s="91" t="s">
-        <v>34</v>
+      <c r="B29" s="71" t="s">
+        <v>33</v>
       </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66" t="s">
+      <c r="C29" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="66" t="s">
-        <v>20</v>
+      <c r="E29" s="70" t="s">
+        <v>40</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>13</v>
@@ -2738,7 +2748,7 @@
       <c r="J29" s="57"/>
       <c r="K29" s="57"/>
       <c r="L29" s="57"/>
-      <c r="M29" s="93"/>
+      <c r="M29" s="24"/>
       <c r="N29" s="24"/>
       <c r="O29" s="24"/>
       <c r="P29" s="24"/>
@@ -2766,11 +2776,11 @@
       <c r="AL29" s="26"/>
     </row>
     <row r="30" spans="1:38" ht="12" customHeight="1">
-      <c r="A30" s="65"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
       <c r="F30" s="38" t="s">
         <v>14</v>
       </c>
@@ -2780,7 +2790,7 @@
       <c r="J30" s="63"/>
       <c r="K30" s="63"/>
       <c r="L30" s="63"/>
-      <c r="M30" s="98"/>
+      <c r="M30" s="40"/>
       <c r="N30" s="40"/>
       <c r="O30" s="40"/>
       <c r="P30" s="40"/>
@@ -2808,18 +2818,20 @@
       <c r="AL30" s="30"/>
     </row>
     <row r="31" spans="1:38" ht="12" customHeight="1">
-      <c r="A31" s="64">
-        <v>1</v>
+      <c r="A31" s="66">
+        <v>4</v>
       </c>
-      <c r="B31" s="86" t="s">
-        <v>35</v>
+      <c r="B31" s="68" t="s">
+        <v>34</v>
       </c>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66" t="s">
+      <c r="C31" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="66" t="s">
-        <v>20</v>
+      <c r="E31" s="70" t="s">
+        <v>40</v>
       </c>
       <c r="F31" s="21" t="s">
         <v>13</v>
@@ -2858,11 +2870,11 @@
       <c r="AL31" s="26"/>
     </row>
     <row r="32" spans="1:38" ht="12" customHeight="1">
-      <c r="A32" s="65"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
       <c r="F32" s="27" t="s">
         <v>14</v>
       </c>
@@ -2872,7 +2884,7 @@
       <c r="J32" s="59"/>
       <c r="K32" s="59"/>
       <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
+      <c r="M32" s="92"/>
       <c r="N32" s="29"/>
       <c r="O32" s="29"/>
       <c r="P32" s="29"/>
@@ -2900,18 +2912,20 @@
       <c r="AL32" s="30"/>
     </row>
     <row r="33" spans="1:38" ht="12" customHeight="1">
-      <c r="A33" s="64">
-        <v>2</v>
+      <c r="A33" s="66">
+        <v>5</v>
       </c>
-      <c r="B33" s="86" t="s">
-        <v>36</v>
+      <c r="B33" s="68" t="s">
+        <v>35</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66" t="s">
+      <c r="C33" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="66" t="s">
-        <v>20</v>
+      <c r="E33" s="70" t="s">
+        <v>40</v>
       </c>
       <c r="F33" s="31" t="s">
         <v>13</v>
@@ -2950,21 +2964,21 @@
       <c r="AL33" s="10"/>
     </row>
     <row r="34" spans="1:38" ht="12" customHeight="1">
-      <c r="A34" s="65"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
       <c r="F34" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="88"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="93"/>
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="36"/>
@@ -2992,18 +3006,20 @@
       <c r="AL34" s="37"/>
     </row>
     <row r="35" spans="1:38" ht="12" customHeight="1">
-      <c r="A35" s="64">
-        <v>3</v>
+      <c r="A35" s="66">
+        <v>6</v>
       </c>
-      <c r="B35" s="91" t="s">
-        <v>37</v>
+      <c r="B35" s="71" t="s">
+        <v>36</v>
       </c>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66" t="s">
+      <c r="C35" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="66" t="s">
-        <v>20</v>
+      <c r="E35" s="70" t="s">
+        <v>40</v>
       </c>
       <c r="F35" s="21" t="s">
         <v>13</v>
@@ -3042,11 +3058,11 @@
       <c r="AL35" s="26"/>
     </row>
     <row r="36" spans="1:38" ht="12" customHeight="1">
-      <c r="A36" s="65"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
       <c r="F36" s="38" t="s">
         <v>14</v>
       </c>
@@ -3056,7 +3072,7 @@
       <c r="J36" s="63"/>
       <c r="K36" s="63"/>
       <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
+      <c r="M36" s="94"/>
       <c r="N36" s="40"/>
       <c r="O36" s="40"/>
       <c r="P36" s="40"/>
@@ -3084,18 +3100,20 @@
       <c r="AL36" s="30"/>
     </row>
     <row r="37" spans="1:38" ht="12" customHeight="1">
-      <c r="A37" s="64">
-        <v>1</v>
+      <c r="A37" s="66">
+        <v>7</v>
       </c>
-      <c r="B37" s="86" t="s">
-        <v>38</v>
+      <c r="B37" s="68" t="s">
+        <v>37</v>
       </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66" t="s">
+      <c r="C37" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="66" t="s">
-        <v>20</v>
+      <c r="E37" s="70" t="s">
+        <v>40</v>
       </c>
       <c r="F37" s="21" t="s">
         <v>13</v>
@@ -3134,11 +3152,11 @@
       <c r="AL37" s="26"/>
     </row>
     <row r="38" spans="1:38" ht="12" customHeight="1">
-      <c r="A38" s="65"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
       <c r="F38" s="27" t="s">
         <v>14</v>
       </c>
@@ -3148,7 +3166,7 @@
       <c r="J38" s="59"/>
       <c r="K38" s="59"/>
       <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
+      <c r="M38" s="92"/>
       <c r="N38" s="29"/>
       <c r="O38" s="29"/>
       <c r="P38" s="29"/>
@@ -3176,18 +3194,20 @@
       <c r="AL38" s="30"/>
     </row>
     <row r="39" spans="1:38" ht="12" customHeight="1">
-      <c r="A39" s="64">
-        <v>2</v>
+      <c r="A39" s="66">
+        <v>8</v>
       </c>
-      <c r="B39" s="86" t="s">
-        <v>39</v>
+      <c r="B39" s="68" t="s">
+        <v>38</v>
       </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66" t="s">
+      <c r="C39" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="66" t="s">
-        <v>20</v>
+      <c r="E39" s="70" t="s">
+        <v>40</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>13</v>
@@ -3226,21 +3246,21 @@
       <c r="AL39" s="10"/>
     </row>
     <row r="40" spans="1:38" ht="12" customHeight="1">
-      <c r="A40" s="65"/>
-      <c r="B40" s="87"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
       <c r="F40" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="88"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="93"/>
       <c r="N40" s="36"/>
       <c r="O40" s="36"/>
       <c r="P40" s="36"/>
@@ -3268,18 +3288,20 @@
       <c r="AL40" s="37"/>
     </row>
     <row r="41" spans="1:38" ht="12" customHeight="1">
-      <c r="A41" s="64">
-        <v>3</v>
+      <c r="A41" s="66">
+        <v>9</v>
       </c>
-      <c r="B41" s="91" t="s">
-        <v>40</v>
+      <c r="B41" s="71" t="s">
+        <v>39</v>
       </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66" t="s">
+      <c r="C41" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="66" t="s">
-        <v>20</v>
+      <c r="E41" s="70" t="s">
+        <v>40</v>
       </c>
       <c r="F41" s="21" t="s">
         <v>13</v>
@@ -3318,11 +3340,11 @@
       <c r="AL41" s="26"/>
     </row>
     <row r="42" spans="1:38" ht="12" customHeight="1">
-      <c r="A42" s="65"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
       <c r="F42" s="38" t="s">
         <v>14</v>
       </c>
@@ -3332,7 +3354,7 @@
       <c r="J42" s="63"/>
       <c r="K42" s="63"/>
       <c r="L42" s="63"/>
-      <c r="M42" s="63"/>
+      <c r="M42" s="94"/>
       <c r="N42" s="40"/>
       <c r="O42" s="40"/>
       <c r="P42" s="40"/>
@@ -3402,15 +3424,17 @@
       <c r="AL43" s="20"/>
     </row>
     <row r="44" spans="1:38" ht="12" customHeight="1">
-      <c r="A44" s="64">
+      <c r="A44" s="66">
         <v>1</v>
       </c>
-      <c r="B44" s="66" t="s">
-        <v>22</v>
+      <c r="B44" s="70" t="s">
+        <v>21</v>
       </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
+      <c r="C44" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
       <c r="F44" s="21" t="s">
         <v>13</v>
       </c>
@@ -3424,14 +3448,14 @@
       <c r="N44" s="23"/>
       <c r="O44" s="57"/>
       <c r="P44" s="57"/>
-      <c r="Q44" s="90"/>
-      <c r="R44" s="90"/>
-      <c r="S44" s="94"/>
-      <c r="T44" s="90"/>
-      <c r="U44" s="90"/>
-      <c r="V44" s="90"/>
-      <c r="W44" s="90"/>
-      <c r="X44" s="90"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="52"/>
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="23"/>
+      <c r="W44" s="23"/>
+      <c r="X44" s="23"/>
       <c r="Y44" s="24"/>
       <c r="Z44" s="24"/>
       <c r="AA44" s="24"/>
@@ -3448,11 +3472,11 @@
       <c r="AL44" s="26"/>
     </row>
     <row r="45" spans="1:38" ht="12" customHeight="1">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
       <c r="F45" s="27" t="s">
         <v>14</v>
       </c>
@@ -3490,15 +3514,17 @@
       <c r="AL45" s="30"/>
     </row>
     <row r="46" spans="1:38" ht="12" customHeight="1">
-      <c r="A46" s="64">
+      <c r="A46" s="66">
         <v>2</v>
       </c>
-      <c r="B46" s="91" t="s">
-        <v>23</v>
+      <c r="B46" s="71" t="s">
+        <v>22</v>
       </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
+      <c r="C46" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
       <c r="F46" s="31" t="s">
         <v>13</v>
       </c>
@@ -3536,11 +3562,11 @@
       <c r="AL46" s="10"/>
     </row>
     <row r="47" spans="1:38" ht="12" customHeight="1">
-      <c r="A47" s="65"/>
-      <c r="B47" s="92"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
       <c r="F47" s="34" t="s">
         <v>14</v>
       </c>
@@ -3578,15 +3604,17 @@
       <c r="AL47" s="37"/>
     </row>
     <row r="48" spans="1:38" ht="12" customHeight="1">
-      <c r="A48" s="64">
+      <c r="A48" s="66">
         <v>3</v>
       </c>
-      <c r="B48" s="91" t="s">
-        <v>28</v>
+      <c r="B48" s="71" t="s">
+        <v>27</v>
       </c>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
+      <c r="C48" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
       <c r="F48" s="21" t="s">
         <v>13</v>
       </c>
@@ -3624,11 +3652,11 @@
       <c r="AL48" s="26"/>
     </row>
     <row r="49" spans="1:38" ht="12" customHeight="1">
-      <c r="A49" s="65"/>
-      <c r="B49" s="92"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
       <c r="F49" s="38" t="s">
         <v>14</v>
       </c>
@@ -3666,15 +3694,17 @@
       <c r="AL49" s="30"/>
     </row>
     <row r="50" spans="1:38" ht="12" customHeight="1">
-      <c r="A50" s="64">
+      <c r="A50" s="66">
         <v>4</v>
       </c>
-      <c r="B50" s="91" t="s">
-        <v>29</v>
+      <c r="B50" s="71" t="s">
+        <v>28</v>
       </c>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
+      <c r="C50" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
       <c r="F50" s="31" t="s">
         <v>13</v>
       </c>
@@ -3712,11 +3742,11 @@
       <c r="AL50" s="10"/>
     </row>
     <row r="51" spans="1:38" ht="12" customHeight="1">
-      <c r="A51" s="65"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
       <c r="F51" s="34" t="s">
         <v>14</v>
       </c>
@@ -3754,15 +3784,17 @@
       <c r="AL51" s="37"/>
     </row>
     <row r="52" spans="1:38" ht="12" customHeight="1">
-      <c r="A52" s="64">
+      <c r="A52" s="66">
         <v>5</v>
       </c>
-      <c r="B52" s="91" t="s">
-        <v>30</v>
+      <c r="B52" s="71" t="s">
+        <v>29</v>
       </c>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66"/>
+      <c r="C52" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
       <c r="F52" s="21" t="s">
         <v>13</v>
       </c>
@@ -3776,14 +3808,14 @@
       <c r="N52" s="23"/>
       <c r="O52" s="57"/>
       <c r="P52" s="57"/>
-      <c r="Q52" s="90"/>
-      <c r="R52" s="90"/>
-      <c r="S52" s="94"/>
-      <c r="T52" s="90"/>
-      <c r="U52" s="90"/>
-      <c r="V52" s="90"/>
-      <c r="W52" s="90"/>
-      <c r="X52" s="90"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="52"/>
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="23"/>
+      <c r="W52" s="23"/>
+      <c r="X52" s="23"/>
       <c r="Y52" s="24"/>
       <c r="Z52" s="24"/>
       <c r="AA52" s="24"/>
@@ -3800,11 +3832,11 @@
       <c r="AL52" s="26"/>
     </row>
     <row r="53" spans="1:38" ht="12" customHeight="1">
-      <c r="A53" s="65"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
       <c r="F53" s="27" t="s">
         <v>14</v>
       </c>
@@ -3842,15 +3874,17 @@
       <c r="AL53" s="30"/>
     </row>
     <row r="54" spans="1:38" ht="12" customHeight="1">
-      <c r="A54" s="64">
+      <c r="A54" s="66">
         <v>6</v>
       </c>
-      <c r="B54" s="66" t="s">
-        <v>31</v>
+      <c r="B54" s="70" t="s">
+        <v>30</v>
       </c>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="66"/>
+      <c r="C54" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
       <c r="F54" s="31" t="s">
         <v>13</v>
       </c>
@@ -3888,11 +3922,11 @@
       <c r="AL54" s="10"/>
     </row>
     <row r="55" spans="1:38" ht="12" customHeight="1">
-      <c r="A55" s="65"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
+      <c r="A55" s="67"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
       <c r="F55" s="34" t="s">
         <v>14</v>
       </c>
@@ -3930,13 +3964,13 @@
       <c r="AL55" s="37"/>
     </row>
     <row r="56" spans="1:38" ht="12" customHeight="1">
-      <c r="A56" s="64">
+      <c r="A56" s="66">
         <v>7</v>
       </c>
-      <c r="B56" s="91"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="66"/>
+      <c r="B56" s="71"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
       <c r="F56" s="21" t="s">
         <v>13</v>
       </c>
@@ -3948,8 +3982,8 @@
       <c r="L56" s="24"/>
       <c r="M56" s="24"/>
       <c r="N56" s="24"/>
-      <c r="O56" s="93"/>
-      <c r="P56" s="93"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
       <c r="Q56" s="24"/>
       <c r="R56" s="24"/>
       <c r="S56" s="46"/>
@@ -3974,11 +4008,11 @@
       <c r="AL56" s="26"/>
     </row>
     <row r="57" spans="1:38" ht="12" customHeight="1">
-      <c r="A57" s="65"/>
-      <c r="B57" s="92"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
+      <c r="A57" s="67"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
       <c r="F57" s="38" t="s">
         <v>14</v>
       </c>
@@ -3990,8 +4024,8 @@
       <c r="L57" s="40"/>
       <c r="M57" s="40"/>
       <c r="N57" s="40"/>
-      <c r="O57" s="98"/>
-      <c r="P57" s="98"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
       <c r="Q57" s="40"/>
       <c r="R57" s="54"/>
       <c r="S57" s="50"/>
@@ -4016,13 +4050,13 @@
       <c r="AL57" s="30"/>
     </row>
     <row r="58" spans="1:38" ht="12" customHeight="1">
-      <c r="A58" s="64">
+      <c r="A58" s="66">
         <v>8</v>
       </c>
-      <c r="B58" s="91"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="66"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
       <c r="F58" s="31" t="s">
         <v>13</v>
       </c>
@@ -4034,8 +4068,8 @@
       <c r="L58" s="32"/>
       <c r="M58" s="32"/>
       <c r="N58" s="32"/>
-      <c r="O58" s="95"/>
-      <c r="P58" s="95"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
       <c r="Q58" s="32"/>
       <c r="R58" s="32"/>
       <c r="S58" s="48"/>
@@ -4060,11 +4094,11 @@
       <c r="AL58" s="10"/>
     </row>
     <row r="59" spans="1:38" ht="12" customHeight="1">
-      <c r="A59" s="65"/>
-      <c r="B59" s="92"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
+      <c r="A59" s="67"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
       <c r="F59" s="34" t="s">
         <v>14</v>
       </c>
@@ -4076,8 +4110,8 @@
       <c r="L59" s="36"/>
       <c r="M59" s="36"/>
       <c r="N59" s="36"/>
-      <c r="O59" s="97"/>
-      <c r="P59" s="97"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
       <c r="Q59" s="36"/>
       <c r="R59" s="53"/>
       <c r="S59" s="49"/>
@@ -4102,13 +4136,13 @@
       <c r="AL59" s="37"/>
     </row>
     <row r="60" spans="1:38" ht="12" customHeight="1">
-      <c r="A60" s="64">
+      <c r="A60" s="66">
         <v>9</v>
       </c>
-      <c r="B60" s="66"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="66"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
       <c r="F60" s="21" t="s">
         <v>13</v>
       </c>
@@ -4120,8 +4154,8 @@
       <c r="L60" s="24"/>
       <c r="M60" s="24"/>
       <c r="N60" s="24"/>
-      <c r="O60" s="93"/>
-      <c r="P60" s="93"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
       <c r="Q60" s="24"/>
       <c r="R60" s="24"/>
       <c r="S60" s="46"/>
@@ -4146,11 +4180,11 @@
       <c r="AL60" s="26"/>
     </row>
     <row r="61" spans="1:38" ht="12" customHeight="1">
-      <c r="A61" s="65"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
+      <c r="A61" s="67"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
       <c r="F61" s="38" t="s">
         <v>14</v>
       </c>
@@ -4230,15 +4264,17 @@
       <c r="AL62" s="20"/>
     </row>
     <row r="63" spans="1:38" ht="12" customHeight="1">
-      <c r="A63" s="64">
+      <c r="A63" s="66">
         <v>1</v>
       </c>
-      <c r="B63" s="66" t="s">
-        <v>21</v>
+      <c r="B63" s="70" t="s">
+        <v>20</v>
       </c>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="66"/>
+      <c r="C63" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
       <c r="F63" s="21" t="s">
         <v>13</v>
       </c>
@@ -4276,11 +4312,11 @@
       <c r="AL63" s="26"/>
     </row>
     <row r="64" spans="1:38" ht="12" customHeight="1">
-      <c r="A64" s="65"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="65"/>
+      <c r="A64" s="67"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
       <c r="F64" s="27" t="s">
         <v>14</v>
       </c>
@@ -4318,15 +4354,17 @@
       <c r="AL64" s="30"/>
     </row>
     <row r="65" spans="1:38" ht="12" customHeight="1">
-      <c r="A65" s="64">
+      <c r="A65" s="66">
         <v>2</v>
       </c>
-      <c r="B65" s="91" t="s">
-        <v>25</v>
+      <c r="B65" s="71" t="s">
+        <v>24</v>
       </c>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
+      <c r="C65" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
       <c r="F65" s="31" t="s">
         <v>13</v>
       </c>
@@ -4364,11 +4402,11 @@
       <c r="AL65" s="10"/>
     </row>
     <row r="66" spans="1:38" ht="12" customHeight="1">
-      <c r="A66" s="65"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
+      <c r="A66" s="67"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
       <c r="F66" s="34" t="s">
         <v>14</v>
       </c>
@@ -4406,15 +4444,17 @@
       <c r="AL66" s="37"/>
     </row>
     <row r="67" spans="1:38" ht="12" customHeight="1">
-      <c r="A67" s="64">
+      <c r="A67" s="66">
         <v>3</v>
       </c>
-      <c r="B67" s="91" t="s">
-        <v>26</v>
+      <c r="B67" s="71" t="s">
+        <v>25</v>
       </c>
-      <c r="C67" s="66"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66"/>
+      <c r="C67" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
       <c r="F67" s="21" t="s">
         <v>13</v>
       </c>
@@ -4440,10 +4480,10 @@
       <c r="Z67" s="57"/>
       <c r="AA67" s="56"/>
       <c r="AB67" s="56"/>
-      <c r="AC67" s="93"/>
-      <c r="AD67" s="93"/>
-      <c r="AE67" s="90"/>
-      <c r="AF67" s="90"/>
+      <c r="AC67" s="24"/>
+      <c r="AD67" s="24"/>
+      <c r="AE67" s="23"/>
+      <c r="AF67" s="23"/>
       <c r="AG67" s="24"/>
       <c r="AH67" s="24"/>
       <c r="AI67" s="26"/>
@@ -4452,11 +4492,11 @@
       <c r="AL67" s="26"/>
     </row>
     <row r="68" spans="1:38" ht="12" customHeight="1">
-      <c r="A68" s="65"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
+      <c r="A68" s="67"/>
+      <c r="B68" s="72"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
       <c r="F68" s="38" t="s">
         <v>14</v>
       </c>
@@ -4494,15 +4534,17 @@
       <c r="AL68" s="30"/>
     </row>
     <row r="69" spans="1:38" ht="12" customHeight="1">
-      <c r="A69" s="64">
+      <c r="A69" s="66">
         <v>4</v>
       </c>
-      <c r="B69" s="91" t="s">
-        <v>27</v>
+      <c r="B69" s="71" t="s">
+        <v>26</v>
       </c>
-      <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="66"/>
+      <c r="C69" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
       <c r="F69" s="31" t="s">
         <v>13</v>
       </c>
@@ -4540,11 +4582,11 @@
       <c r="AL69" s="10"/>
     </row>
     <row r="70" spans="1:38" ht="12" customHeight="1">
-      <c r="A70" s="65"/>
-      <c r="B70" s="92"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="65"/>
+      <c r="A70" s="67"/>
+      <c r="B70" s="72"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
       <c r="F70" s="34" t="s">
         <v>14</v>
       </c>
@@ -4582,15 +4624,17 @@
       <c r="AL70" s="37"/>
     </row>
     <row r="71" spans="1:38" ht="12" customHeight="1">
-      <c r="A71" s="64">
+      <c r="A71" s="66">
         <v>5</v>
       </c>
-      <c r="B71" s="66" t="s">
-        <v>24</v>
+      <c r="B71" s="70" t="s">
+        <v>23</v>
       </c>
-      <c r="C71" s="66"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="66"/>
+      <c r="C71" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
       <c r="F71" s="21" t="s">
         <v>13</v>
       </c>
@@ -4628,11 +4672,11 @@
       <c r="AL71" s="26"/>
     </row>
     <row r="72" spans="1:38" ht="12" customHeight="1">
-      <c r="A72" s="65"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="65"/>
+      <c r="A72" s="67"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
       <c r="F72" s="38" t="s">
         <v>14</v>
       </c>
@@ -4670,13 +4714,13 @@
       <c r="AL72" s="41"/>
     </row>
     <row r="73" spans="1:38" ht="12" customHeight="1">
-      <c r="A73" s="64">
+      <c r="A73" s="66">
         <v>6</v>
       </c>
-      <c r="B73" s="66"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="70"/>
       <c r="F73" s="31" t="s">
         <v>13</v>
       </c>
@@ -4714,11 +4758,11 @@
       <c r="AL73" s="10"/>
     </row>
     <row r="74" spans="1:38" ht="12" customHeight="1">
-      <c r="A74" s="65"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="65"/>
+      <c r="A74" s="67"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
       <c r="F74" s="34" t="s">
         <v>14</v>
       </c>
@@ -4798,13 +4842,13 @@
       <c r="AL75" s="20"/>
     </row>
     <row r="76" spans="1:38" ht="12" customHeight="1">
-      <c r="A76" s="64">
+      <c r="A76" s="66">
         <v>1</v>
       </c>
-      <c r="B76" s="66"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="70"/>
       <c r="F76" s="21" t="s">
         <v>13</v>
       </c>
@@ -4842,11 +4886,11 @@
       <c r="AL76" s="26"/>
     </row>
     <row r="77" spans="1:38" ht="12" customHeight="1">
-      <c r="A77" s="65"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="65"/>
+      <c r="A77" s="67"/>
+      <c r="B77" s="67"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="67"/>
       <c r="F77" s="27" t="s">
         <v>14</v>
       </c>
@@ -4884,13 +4928,13 @@
       <c r="AL77" s="30"/>
     </row>
     <row r="78" spans="1:38" ht="12" customHeight="1">
-      <c r="A78" s="64">
+      <c r="A78" s="66">
         <v>2</v>
       </c>
-      <c r="B78" s="66"/>
-      <c r="C78" s="66"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="66"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="70"/>
+      <c r="E78" s="70"/>
       <c r="F78" s="31" t="s">
         <v>13</v>
       </c>
@@ -4928,11 +4972,11 @@
       <c r="AL78" s="10"/>
     </row>
     <row r="79" spans="1:38" ht="12" customHeight="1">
-      <c r="A79" s="65"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="65"/>
+      <c r="A79" s="67"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="67"/>
       <c r="F79" s="34" t="s">
         <v>14</v>
       </c>
@@ -4970,13 +5014,13 @@
       <c r="AL79" s="37"/>
     </row>
     <row r="80" spans="1:38" ht="12" customHeight="1">
-      <c r="A80" s="64">
+      <c r="A80" s="66">
         <v>3</v>
       </c>
-      <c r="B80" s="66"/>
-      <c r="C80" s="66"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="66"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="70"/>
+      <c r="E80" s="70"/>
       <c r="F80" s="21" t="s">
         <v>13</v>
       </c>
@@ -5014,11 +5058,11 @@
       <c r="AL80" s="26"/>
     </row>
     <row r="81" spans="1:38" ht="12" customHeight="1">
-      <c r="A81" s="65"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="65"/>
+      <c r="A81" s="67"/>
+      <c r="B81" s="67"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="67"/>
       <c r="F81" s="38" t="s">
         <v>14</v>
       </c>
@@ -5056,13 +5100,13 @@
       <c r="AL81" s="30"/>
     </row>
     <row r="82" spans="1:38" ht="12" customHeight="1">
-      <c r="A82" s="64">
+      <c r="A82" s="66">
         <v>4</v>
       </c>
-      <c r="B82" s="66"/>
-      <c r="C82" s="66"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="66"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="70"/>
       <c r="F82" s="31" t="s">
         <v>13</v>
       </c>
@@ -5100,11 +5144,11 @@
       <c r="AL82" s="10"/>
     </row>
     <row r="83" spans="1:38" ht="12" customHeight="1">
-      <c r="A83" s="65"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
+      <c r="A83" s="67"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
       <c r="F83" s="34" t="s">
         <v>14</v>
       </c>
@@ -5142,13 +5186,13 @@
       <c r="AL83" s="37"/>
     </row>
     <row r="84" spans="1:38" ht="12" customHeight="1">
-      <c r="A84" s="64">
+      <c r="A84" s="66">
         <v>5</v>
       </c>
-      <c r="B84" s="66"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="66"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="70"/>
+      <c r="E84" s="70"/>
       <c r="F84" s="21" t="s">
         <v>13</v>
       </c>
@@ -5186,11 +5230,11 @@
       <c r="AL84" s="26"/>
     </row>
     <row r="85" spans="1:38" ht="12" customHeight="1">
-      <c r="A85" s="65"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="65"/>
+      <c r="A85" s="67"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="67"/>
       <c r="F85" s="38" t="s">
         <v>14</v>
       </c>
@@ -5228,13 +5272,13 @@
       <c r="AL85" s="41"/>
     </row>
     <row r="86" spans="1:38" ht="12" customHeight="1">
-      <c r="A86" s="64">
+      <c r="A86" s="66">
         <v>6</v>
       </c>
-      <c r="B86" s="66"/>
-      <c r="C86" s="66"/>
-      <c r="D86" s="66"/>
-      <c r="E86" s="66"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="70"/>
+      <c r="D86" s="70"/>
+      <c r="E86" s="70"/>
       <c r="F86" s="31" t="s">
         <v>13</v>
       </c>
@@ -5272,11 +5316,11 @@
       <c r="AL86" s="10"/>
     </row>
     <row r="87" spans="1:38" ht="12" customHeight="1">
-      <c r="A87" s="65"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="65"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="65"/>
+      <c r="A87" s="67"/>
+      <c r="B87" s="67"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="67"/>
       <c r="F87" s="34" t="s">
         <v>14</v>
       </c>
@@ -5354,13 +5398,13 @@
       <c r="AL88" s="20"/>
     </row>
     <row r="89" spans="1:38" ht="12" customHeight="1">
-      <c r="A89" s="64">
+      <c r="A89" s="66">
         <v>1</v>
       </c>
-      <c r="B89" s="66"/>
-      <c r="C89" s="66"/>
-      <c r="D89" s="66"/>
-      <c r="E89" s="66"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="70"/>
+      <c r="D89" s="70"/>
+      <c r="E89" s="70"/>
       <c r="F89" s="21" t="s">
         <v>13</v>
       </c>
@@ -5398,11 +5442,11 @@
       <c r="AL89" s="26"/>
     </row>
     <row r="90" spans="1:38" ht="12" customHeight="1">
-      <c r="A90" s="65"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="65"/>
+      <c r="A90" s="67"/>
+      <c r="B90" s="67"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="67"/>
       <c r="F90" s="27" t="s">
         <v>14</v>
       </c>
@@ -5440,13 +5484,13 @@
       <c r="AL90" s="30"/>
     </row>
     <row r="91" spans="1:38" ht="12" customHeight="1">
-      <c r="A91" s="64">
+      <c r="A91" s="66">
         <v>2</v>
       </c>
-      <c r="B91" s="66"/>
-      <c r="C91" s="66"/>
-      <c r="D91" s="66"/>
-      <c r="E91" s="66"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="70"/>
       <c r="F91" s="31" t="s">
         <v>13</v>
       </c>
@@ -5484,11 +5528,11 @@
       <c r="AL91" s="10"/>
     </row>
     <row r="92" spans="1:38" ht="12" customHeight="1">
-      <c r="A92" s="65"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="65"/>
+      <c r="A92" s="67"/>
+      <c r="B92" s="67"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="67"/>
+      <c r="E92" s="67"/>
       <c r="F92" s="34" t="s">
         <v>14</v>
       </c>
@@ -5526,13 +5570,13 @@
       <c r="AL92" s="37"/>
     </row>
     <row r="93" spans="1:38" ht="12" customHeight="1">
-      <c r="A93" s="64">
+      <c r="A93" s="66">
         <v>3</v>
       </c>
-      <c r="B93" s="66"/>
-      <c r="C93" s="66"/>
-      <c r="D93" s="66"/>
-      <c r="E93" s="66"/>
+      <c r="B93" s="70"/>
+      <c r="C93" s="70"/>
+      <c r="D93" s="70"/>
+      <c r="E93" s="70"/>
       <c r="F93" s="21" t="s">
         <v>13</v>
       </c>
@@ -5570,11 +5614,11 @@
       <c r="AL93" s="26"/>
     </row>
     <row r="94" spans="1:38" ht="12" customHeight="1">
-      <c r="A94" s="65"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="65"/>
+      <c r="A94" s="67"/>
+      <c r="B94" s="67"/>
+      <c r="C94" s="67"/>
+      <c r="D94" s="67"/>
+      <c r="E94" s="67"/>
       <c r="F94" s="38" t="s">
         <v>14</v>
       </c>
@@ -5612,13 +5656,13 @@
       <c r="AL94" s="30"/>
     </row>
     <row r="95" spans="1:38" ht="12" customHeight="1">
-      <c r="A95" s="64">
+      <c r="A95" s="66">
         <v>4</v>
       </c>
-      <c r="B95" s="66"/>
-      <c r="C95" s="66"/>
-      <c r="D95" s="66"/>
-      <c r="E95" s="66"/>
+      <c r="B95" s="70"/>
+      <c r="C95" s="70"/>
+      <c r="D95" s="70"/>
+      <c r="E95" s="70"/>
       <c r="F95" s="31" t="s">
         <v>13</v>
       </c>
@@ -5656,11 +5700,11 @@
       <c r="AL95" s="10"/>
     </row>
     <row r="96" spans="1:38" ht="12" customHeight="1">
-      <c r="A96" s="65"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="65"/>
+      <c r="A96" s="67"/>
+      <c r="B96" s="67"/>
+      <c r="C96" s="67"/>
+      <c r="D96" s="67"/>
+      <c r="E96" s="67"/>
       <c r="F96" s="38" t="s">
         <v>14</v>
       </c>
@@ -42339,56 +42383,177 @@
     </row>
   </sheetData>
   <mergeCells count="245">
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G3:AL4"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
     <mergeCell ref="AE5:AF5"/>
     <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="AE6:AF6"/>
@@ -42413,177 +42578,56 @@
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G3:AL4"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
